--- a/Code/Results/Cases/Case_4_79/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_79/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9943852257478673</v>
+        <v>1.043350035268205</v>
       </c>
       <c r="D2">
-        <v>1.01183407426841</v>
+        <v>1.041332631022898</v>
       </c>
       <c r="E2">
-        <v>1.009488613302486</v>
+        <v>1.056681566927112</v>
       </c>
       <c r="F2">
-        <v>1.01119815448991</v>
+        <v>1.06359659467957</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039370282941841</v>
+        <v>1.033771100570638</v>
       </c>
       <c r="J2">
-        <v>1.01673518056471</v>
+        <v>1.048420956217138</v>
       </c>
       <c r="K2">
-        <v>1.023130967282764</v>
+        <v>1.044112444682736</v>
       </c>
       <c r="L2">
-        <v>1.020817320687313</v>
+        <v>1.059418610081964</v>
       </c>
       <c r="M2">
-        <v>1.022503654921844</v>
+        <v>1.066314805497059</v>
       </c>
       <c r="N2">
-        <v>1.008562572585975</v>
+        <v>1.019874624930268</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001554539890231</v>
+        <v>1.044784002071997</v>
       </c>
       <c r="D3">
-        <v>1.016920830396864</v>
+        <v>1.042354381503289</v>
       </c>
       <c r="E3">
-        <v>1.016477801447117</v>
+        <v>1.058143109363738</v>
       </c>
       <c r="F3">
-        <v>1.018807082547181</v>
+        <v>1.065204312126877</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041056016875794</v>
+        <v>1.034023081233812</v>
       </c>
       <c r="J3">
-        <v>1.022002916103294</v>
+        <v>1.049499332053239</v>
       </c>
       <c r="K3">
-        <v>1.027341688766326</v>
+        <v>1.044944246879556</v>
       </c>
       <c r="L3">
-        <v>1.026904099117742</v>
+        <v>1.060692191973851</v>
       </c>
       <c r="M3">
-        <v>1.029204848225758</v>
+        <v>1.067735577024751</v>
       </c>
       <c r="N3">
-        <v>1.010412016100279</v>
+        <v>1.020244682089662</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006056578434759</v>
+        <v>1.045710604599175</v>
       </c>
       <c r="D4">
-        <v>1.020117238717659</v>
+        <v>1.043014199200374</v>
       </c>
       <c r="E4">
-        <v>1.020872846986983</v>
+        <v>1.059087945585905</v>
       </c>
       <c r="F4">
-        <v>1.023593209819954</v>
+        <v>1.066243953244835</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042101631179328</v>
+        <v>1.034184216774504</v>
       </c>
       <c r="J4">
-        <v>1.025306615010589</v>
+        <v>1.05019543228345</v>
       </c>
       <c r="K4">
-        <v>1.029978781104624</v>
+        <v>1.045480554169492</v>
       </c>
       <c r="L4">
-        <v>1.030725716624506</v>
+        <v>1.061514891988344</v>
       </c>
       <c r="M4">
-        <v>1.033414986369883</v>
+        <v>1.06865376559317</v>
       </c>
       <c r="N4">
-        <v>1.011570673849525</v>
+        <v>1.020483265786914</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007918254312751</v>
+        <v>1.046099850889578</v>
       </c>
       <c r="D5">
-        <v>1.021439398061381</v>
+        <v>1.043291273414001</v>
       </c>
       <c r="E5">
-        <v>1.022691697040218</v>
+        <v>1.059484950423417</v>
       </c>
       <c r="F5">
-        <v>1.025574263955365</v>
+        <v>1.066680867532015</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042530835937353</v>
+        <v>1.034251501469906</v>
       </c>
       <c r="J5">
-        <v>1.026671681673222</v>
+        <v>1.050487675169966</v>
       </c>
       <c r="K5">
-        <v>1.031067484408742</v>
+        <v>1.045705560548673</v>
       </c>
       <c r="L5">
-        <v>1.03230582149091</v>
+        <v>1.06186042731162</v>
       </c>
       <c r="M5">
-        <v>1.035156409933056</v>
+        <v>1.069039504130961</v>
       </c>
       <c r="N5">
-        <v>1.012049107217141</v>
+        <v>1.020583360073455</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00822907108859</v>
+        <v>1.046165189805298</v>
       </c>
       <c r="D6">
-        <v>1.02166015882123</v>
+        <v>1.043337777135529</v>
       </c>
       <c r="E6">
-        <v>1.022995445801896</v>
+        <v>1.059551597482288</v>
       </c>
       <c r="F6">
-        <v>1.025905122790702</v>
+        <v>1.066754218722753</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042602305291647</v>
+        <v>1.03426277212194</v>
       </c>
       <c r="J6">
-        <v>1.026899522052683</v>
+        <v>1.050536720856968</v>
       </c>
       <c r="K6">
-        <v>1.031249141973918</v>
+        <v>1.045743313399983</v>
       </c>
       <c r="L6">
-        <v>1.032569614988662</v>
+        <v>1.06191842515587</v>
       </c>
       <c r="M6">
-        <v>1.035447175507864</v>
+        <v>1.069104255800098</v>
       </c>
       <c r="N6">
-        <v>1.012128942330754</v>
+        <v>1.020600154290713</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006081573686598</v>
+        <v>1.045715806887614</v>
       </c>
       <c r="D7">
-        <v>1.020134988941466</v>
+        <v>1.043017902705559</v>
       </c>
       <c r="E7">
-        <v>1.020897261702841</v>
+        <v>1.059093251179055</v>
       </c>
       <c r="F7">
-        <v>1.023619800370551</v>
+        <v>1.066249791898866</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042107406429229</v>
+        <v>1.034185117628837</v>
       </c>
       <c r="J7">
-        <v>1.025324947008798</v>
+        <v>1.050199338803776</v>
       </c>
       <c r="K7">
-        <v>1.029993405431879</v>
+        <v>1.045483562507954</v>
       </c>
       <c r="L7">
-        <v>1.030746932320685</v>
+        <v>1.061519510329161</v>
       </c>
       <c r="M7">
-        <v>1.033438365343948</v>
+        <v>1.068658920895371</v>
       </c>
       <c r="N7">
-        <v>1.011577100191621</v>
+        <v>1.020484604060425</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9968376344650037</v>
+        <v>1.043834917983032</v>
       </c>
       <c r="D8">
-        <v>1.01357357197095</v>
+        <v>1.041678212547009</v>
       </c>
       <c r="E8">
-        <v>1.011878082696754</v>
+        <v>1.05717568789799</v>
       </c>
       <c r="F8">
-        <v>1.013799232033107</v>
+        <v>1.064140071150009</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03994961491038</v>
+        <v>1.033856655423532</v>
       </c>
       <c r="J8">
-        <v>1.018537969615961</v>
+        <v>1.04878574934566</v>
       </c>
       <c r="K8">
-        <v>1.024572766796549</v>
+        <v>1.044393956686222</v>
       </c>
       <c r="L8">
-        <v>1.022899526161024</v>
+        <v>1.059849314799953</v>
       </c>
       <c r="M8">
-        <v>1.024795472721446</v>
+        <v>1.066795202910922</v>
       </c>
       <c r="N8">
-        <v>1.009195759800891</v>
+        <v>1.019999868122309</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9794090964536496</v>
+        <v>1.040510529101135</v>
       </c>
       <c r="D9">
-        <v>1.001226448284403</v>
+        <v>1.039307209723246</v>
       </c>
       <c r="E9">
-        <v>0.9949256428167825</v>
+        <v>1.053789680512645</v>
       </c>
       <c r="F9">
-        <v>0.9953500152200052</v>
+        <v>1.060417104731024</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035779392533768</v>
+        <v>1.033263157161328</v>
       </c>
       <c r="J9">
-        <v>1.005710529369013</v>
+        <v>1.04628173360309</v>
       </c>
       <c r="K9">
-        <v>1.014299658511369</v>
+        <v>1.042459036567018</v>
       </c>
       <c r="L9">
-        <v>1.008101587946892</v>
+        <v>1.056895297610551</v>
       </c>
       <c r="M9">
-        <v>1.008518988406902</v>
+        <v>1.06350203539478</v>
       </c>
       <c r="N9">
-        <v>1.004685970361765</v>
+        <v>1.019138985379948</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9668813693299652</v>
+        <v>1.03828711480803</v>
       </c>
       <c r="D10">
-        <v>0.9923776469581618</v>
+        <v>1.037719386250764</v>
       </c>
       <c r="E10">
-        <v>0.9827800784839431</v>
+        <v>1.051527231204207</v>
       </c>
       <c r="F10">
-        <v>0.9821360998416756</v>
+        <v>1.057931071669741</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032717289022692</v>
+        <v>1.032857524415149</v>
       </c>
       <c r="J10">
-        <v>0.9964735236739606</v>
+        <v>1.04460328471994</v>
       </c>
       <c r="K10">
-        <v>1.006885902786786</v>
+        <v>1.041158852887813</v>
       </c>
       <c r="L10">
-        <v>0.9974673636078552</v>
+        <v>1.05491825492642</v>
       </c>
       <c r="M10">
-        <v>0.9968355612284413</v>
+        <v>1.061300100574099</v>
       </c>
       <c r="N10">
-        <v>1.001433842706059</v>
+        <v>1.018560451859899</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.961203695134522</v>
+        <v>1.037322561509664</v>
       </c>
       <c r="D11">
-        <v>0.9883761507979211</v>
+        <v>1.037030091798374</v>
       </c>
       <c r="E11">
-        <v>0.9772861940824616</v>
+        <v>1.050546265103486</v>
       </c>
       <c r="F11">
-        <v>0.9761592722185043</v>
+        <v>1.056853530254003</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031315424159887</v>
+        <v>1.032679498679429</v>
       </c>
       <c r="J11">
-        <v>0.9922845075577099</v>
+        <v>1.043874269998979</v>
       </c>
       <c r="K11">
-        <v>1.003520656329344</v>
+        <v>1.040593380827931</v>
       </c>
       <c r="L11">
-        <v>0.9926495595510841</v>
+        <v>1.054060267845481</v>
       </c>
       <c r="M11">
-        <v>0.9915452437829394</v>
+        <v>1.0603450096844</v>
       </c>
       <c r="N11">
-        <v>0.9999582627455889</v>
+        <v>1.018308824897793</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9590530175076051</v>
+        <v>1.036964004886</v>
       </c>
       <c r="D12">
-        <v>0.9868619803978229</v>
+        <v>1.036773788661865</v>
       </c>
       <c r="E12">
-        <v>0.9752068326395651</v>
+        <v>1.050181686022158</v>
       </c>
       <c r="F12">
-        <v>0.9738971073475241</v>
+        <v>1.056453113565733</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030782403417265</v>
+        <v>1.032613012183325</v>
       </c>
       <c r="J12">
-        <v>0.9906974340160497</v>
+        <v>1.043603139681706</v>
       </c>
       <c r="K12">
-        <v>1.002245288146718</v>
+        <v>1.040382961732405</v>
       </c>
       <c r="L12">
-        <v>0.9908249609127778</v>
+        <v>1.053741278630382</v>
       </c>
       <c r="M12">
-        <v>0.98954208663751</v>
+        <v>1.059989992431925</v>
       </c>
       <c r="N12">
-        <v>0.9993991419642749</v>
+        <v>1.018215189538723</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9595162989793935</v>
+        <v>1.037040929236287</v>
       </c>
       <c r="D13">
-        <v>0.9871880751777813</v>
+        <v>1.036828778778623</v>
       </c>
       <c r="E13">
-        <v>0.9756546733262345</v>
+        <v>1.050259898855049</v>
       </c>
       <c r="F13">
-        <v>0.9743843209709353</v>
+        <v>1.056539012129577</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03089731069485</v>
+        <v>1.032627290070986</v>
       </c>
       <c r="J13">
-        <v>0.991039319695722</v>
+        <v>1.04366131361814</v>
       </c>
       <c r="K13">
-        <v>1.002520043106003</v>
+        <v>1.040428114500842</v>
       </c>
       <c r="L13">
-        <v>0.9912179828496731</v>
+        <v>1.053809716344127</v>
       </c>
       <c r="M13">
-        <v>0.989973553292296</v>
+        <v>1.060066156456137</v>
       </c>
       <c r="N13">
-        <v>0.9995195899329204</v>
+        <v>1.018235282360435</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9610267941353174</v>
+        <v>1.037292928837446</v>
       </c>
       <c r="D14">
-        <v>0.9882515712995567</v>
+        <v>1.037008911204977</v>
       </c>
       <c r="E14">
-        <v>0.9771151240318647</v>
+        <v>1.050516133101222</v>
       </c>
       <c r="F14">
-        <v>0.975973163553286</v>
+        <v>1.056820435200464</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031271621125886</v>
+        <v>1.032674010234446</v>
       </c>
       <c r="J14">
-        <v>0.9921539702528261</v>
+        <v>1.043851865289468</v>
       </c>
       <c r="K14">
-        <v>1.003415764418904</v>
+        <v>1.040575995248319</v>
       </c>
       <c r="L14">
-        <v>0.9924994716954969</v>
+        <v>1.054033906147947</v>
       </c>
       <c r="M14">
-        <v>0.9913804603178105</v>
+        <v>1.060315669073764</v>
       </c>
       <c r="N14">
-        <v>0.9999122761819519</v>
+        <v>1.018301088446884</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9619518099254026</v>
+        <v>1.037448156950141</v>
       </c>
       <c r="D15">
-        <v>0.988903063492232</v>
+        <v>1.037119861022499</v>
       </c>
       <c r="E15">
-        <v>0.9780097194012864</v>
+        <v>1.050673980135438</v>
       </c>
       <c r="F15">
-        <v>0.9769464009603932</v>
+        <v>1.056993806478206</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031500586748357</v>
+        <v>1.0327027483416</v>
       </c>
       <c r="J15">
-        <v>0.9928365389864774</v>
+        <v>1.043969224993374</v>
       </c>
       <c r="K15">
-        <v>1.003964220001868</v>
+        <v>1.040667059289975</v>
       </c>
       <c r="L15">
-        <v>0.9932842969356966</v>
+        <v>1.054171997636971</v>
       </c>
       <c r="M15">
-        <v>0.9922421461657268</v>
+        <v>1.060469368144792</v>
       </c>
       <c r="N15">
-        <v>1.000152733295211</v>
+        <v>1.01834161117742</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9672525398577808</v>
+        <v>1.038351090413365</v>
       </c>
       <c r="D16">
-        <v>0.9926394429156731</v>
+        <v>1.03776509505573</v>
       </c>
       <c r="E16">
-        <v>0.9831394616674798</v>
+        <v>1.05159230642538</v>
       </c>
       <c r="F16">
-        <v>0.9825270761711953</v>
+        <v>1.058002561205755</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032808652188234</v>
+        <v>1.032869289028292</v>
       </c>
       <c r="J16">
-        <v>0.9967473282508177</v>
+        <v>1.04465161942315</v>
       </c>
       <c r="K16">
-        <v>1.007105805767013</v>
+        <v>1.041196328696625</v>
       </c>
       <c r="L16">
-        <v>0.9977823654009387</v>
+        <v>1.054975155771979</v>
       </c>
       <c r="M16">
-        <v>0.9971815130693408</v>
+        <v>1.061363451624079</v>
       </c>
       <c r="N16">
-        <v>1.001530278109916</v>
+        <v>1.01857712779185</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9705073193109959</v>
+        <v>1.038916989032728</v>
       </c>
       <c r="D17">
-        <v>0.9949361468092984</v>
+        <v>1.038169359838133</v>
       </c>
       <c r="E17">
-        <v>0.9862920838763737</v>
+        <v>1.052167991944533</v>
       </c>
       <c r="F17">
-        <v>0.9859568717746258</v>
+        <v>1.058635033103585</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033608236138045</v>
+        <v>1.032973116168956</v>
       </c>
       <c r="J17">
-        <v>0.9991480150028208</v>
+        <v>1.045079064775489</v>
       </c>
       <c r="K17">
-        <v>1.009033550123676</v>
+        <v>1.041527657287251</v>
       </c>
       <c r="L17">
-        <v>1.000544808680705</v>
+        <v>1.055478438165001</v>
       </c>
       <c r="M17">
-        <v>1.000215691239397</v>
+        <v>1.061923842390553</v>
       </c>
       <c r="N17">
-        <v>1.002375734376798</v>
+        <v>1.018724560439628</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.972381633544159</v>
+        <v>1.039246894978223</v>
       </c>
       <c r="D18">
-        <v>0.9962595527709848</v>
+        <v>1.038404991491892</v>
       </c>
       <c r="E18">
-        <v>0.9881085559450919</v>
+        <v>1.052503653635058</v>
       </c>
       <c r="F18">
-        <v>0.9879330787719984</v>
+        <v>1.059003840350868</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03406735772095</v>
+        <v>1.033033446865614</v>
       </c>
       <c r="J18">
-        <v>1.000530222990734</v>
+        <v>1.045328171151652</v>
       </c>
       <c r="K18">
-        <v>1.01014316507972</v>
+        <v>1.041720676284113</v>
       </c>
       <c r="L18">
-        <v>1.002135757513866</v>
+        <v>1.055771810017669</v>
       </c>
       <c r="M18">
-        <v>1.001963405393602</v>
+        <v>1.062250551274075</v>
       </c>
       <c r="N18">
-        <v>1.002862439535711</v>
+        <v>1.018810447655902</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9730167359498998</v>
+        <v>1.039359355256112</v>
       </c>
       <c r="D19">
-        <v>0.9967081137442745</v>
+        <v>1.038485307243449</v>
       </c>
       <c r="E19">
-        <v>0.9887242232258879</v>
+        <v>1.05261808446827</v>
       </c>
       <c r="F19">
-        <v>0.9886028933698725</v>
+        <v>1.059129576897032</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034222699825003</v>
+        <v>1.033053979124975</v>
       </c>
       <c r="J19">
-        <v>1.000998529535907</v>
+        <v>1.045413073655084</v>
       </c>
       <c r="K19">
-        <v>1.010519062412726</v>
+        <v>1.04178645030621</v>
       </c>
       <c r="L19">
-        <v>1.002674866075258</v>
+        <v>1.055871811195473</v>
       </c>
       <c r="M19">
-        <v>1.002555681702564</v>
+        <v>1.062361924068516</v>
       </c>
       <c r="N19">
-        <v>1.003027327363686</v>
+        <v>1.018839714757945</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9701606348197581</v>
+        <v>1.03885629143453</v>
       </c>
       <c r="D20">
-        <v>0.9946914259354084</v>
+        <v>1.038126003582755</v>
       </c>
       <c r="E20">
-        <v>0.9859561774475517</v>
+        <v>1.052106239418163</v>
       </c>
       <c r="F20">
-        <v>0.9855914299208873</v>
+        <v>1.058567185561945</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033523205606284</v>
+        <v>1.0329620002927</v>
       </c>
       <c r="J20">
-        <v>0.9988923312874005</v>
+        <v>1.045033226243734</v>
       </c>
       <c r="K20">
-        <v>1.008828266939663</v>
+        <v>1.041492133655728</v>
       </c>
       <c r="L20">
-        <v>1.000250548923774</v>
+        <v>1.055424459835894</v>
       </c>
       <c r="M20">
-        <v>0.9998924582724583</v>
+        <v>1.06186373411946</v>
       </c>
       <c r="N20">
-        <v>1.002285696674468</v>
+        <v>1.01870875347109</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9605831754480805</v>
+        <v>1.037218728991528</v>
       </c>
       <c r="D21">
-        <v>0.9879391867030418</v>
+        <v>1.036955874143814</v>
       </c>
       <c r="E21">
-        <v>0.9766861554192259</v>
+        <v>1.050440684212014</v>
       </c>
       <c r="F21">
-        <v>0.9755064842123966</v>
+        <v>1.056737567878409</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031161743508961</v>
+        <v>1.032660262256496</v>
       </c>
       <c r="J21">
-        <v>0.9918266145731356</v>
+        <v>1.043795762054862</v>
       </c>
       <c r="K21">
-        <v>1.003152715065957</v>
+        <v>1.040532458513083</v>
       </c>
       <c r="L21">
-        <v>0.9921230991758332</v>
+        <v>1.053967896027467</v>
       </c>
       <c r="M21">
-        <v>0.9909672420726469</v>
+        <v>1.060242200900503</v>
       </c>
       <c r="N21">
-        <v>0.9997969520379718</v>
+        <v>1.01828171490018</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9543177446579056</v>
+        <v>1.036187512637309</v>
       </c>
       <c r="D22">
-        <v>0.9835313544498049</v>
+        <v>1.036218611634954</v>
       </c>
       <c r="E22">
-        <v>0.9706318424345687</v>
+        <v>1.049392295981357</v>
       </c>
       <c r="F22">
-        <v>0.9689198090678161</v>
+        <v>1.055586227706925</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029605267665717</v>
+        <v>1.032468465001626</v>
       </c>
       <c r="J22">
-        <v>0.9872026814721266</v>
+        <v>1.043015738721999</v>
       </c>
       <c r="K22">
-        <v>0.999436273535723</v>
+        <v>1.039926885802792</v>
       </c>
       <c r="L22">
-        <v>0.9868084353472236</v>
+        <v>1.053050388529027</v>
       </c>
       <c r="M22">
-        <v>0.9851331800932369</v>
+        <v>1.059221205310886</v>
       </c>
       <c r="N22">
-        <v>0.9981678560425855</v>
+        <v>1.018012234842096</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9576636453637655</v>
+        <v>1.036734335826211</v>
       </c>
       <c r="D23">
-        <v>0.9858842804429386</v>
+        <v>1.036609597449143</v>
       </c>
       <c r="E23">
-        <v>0.973864024816827</v>
+        <v>1.049948181566871</v>
       </c>
       <c r="F23">
-        <v>0.9724362359113808</v>
+        <v>1.056196671373599</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030437515073814</v>
+        <v>1.032570338307432</v>
       </c>
       <c r="J23">
-        <v>0.9896720922587584</v>
+        <v>1.043429433578952</v>
       </c>
       <c r="K23">
-        <v>1.00142122489334</v>
+        <v>1.04024812012471</v>
       </c>
       <c r="L23">
-        <v>0.9896463579482028</v>
+        <v>1.053536940854725</v>
       </c>
       <c r="M23">
-        <v>0.9882482494997483</v>
+        <v>1.059762596657765</v>
       </c>
       <c r="N23">
-        <v>0.9990379010693217</v>
+        <v>1.018155185231155</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9703173609543714</v>
+        <v>1.038883718601725</v>
       </c>
       <c r="D24">
-        <v>0.9948020547261583</v>
+        <v>1.038145594931281</v>
       </c>
       <c r="E24">
-        <v>0.9861080280710511</v>
+        <v>1.05213414311614</v>
       </c>
       <c r="F24">
-        <v>0.985756632286518</v>
+        <v>1.058597843263826</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033561649619581</v>
+        <v>1.032967023789239</v>
       </c>
       <c r="J24">
-        <v>0.9990079194048822</v>
+        <v>1.045053939368534</v>
       </c>
       <c r="K24">
-        <v>1.008921071174851</v>
+        <v>1.041508185995563</v>
       </c>
       <c r="L24">
-        <v>1.000383574866369</v>
+        <v>1.055448850888936</v>
       </c>
       <c r="M24">
-        <v>1.000038581294114</v>
+        <v>1.061890894946988</v>
       </c>
       <c r="N24">
-        <v>1.002326400656496</v>
+        <v>1.018715896292823</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9840635011781981</v>
+        <v>1.04137119372864</v>
       </c>
       <c r="D25">
-        <v>1.004520116068448</v>
+        <v>1.039921414801505</v>
       </c>
       <c r="E25">
-        <v>0.9994464394527854</v>
+        <v>1.054665916397533</v>
       </c>
       <c r="F25">
-        <v>1.00026909246818</v>
+        <v>1.061380262739911</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036904416838502</v>
+        <v>1.033418341581835</v>
       </c>
       <c r="J25">
-        <v>1.009139357826941</v>
+        <v>1.046930664119579</v>
       </c>
       <c r="K25">
-        <v>1.017048665973608</v>
+        <v>1.042961047733418</v>
       </c>
       <c r="L25">
-        <v>1.012053354817899</v>
+        <v>1.05766031238979</v>
       </c>
       <c r="M25">
-        <v>1.012863232558279</v>
+        <v>1.064354512556675</v>
       </c>
       <c r="N25">
-        <v>1.005892357298252</v>
+        <v>1.019362349944304</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_79/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_79/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043350035268205</v>
+        <v>0.9943852257478658</v>
       </c>
       <c r="D2">
-        <v>1.041332631022898</v>
+        <v>1.011834074268409</v>
       </c>
       <c r="E2">
-        <v>1.056681566927112</v>
+        <v>1.009488613302485</v>
       </c>
       <c r="F2">
-        <v>1.06359659467957</v>
+        <v>1.011198154489909</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033771100570638</v>
+        <v>1.03937028294184</v>
       </c>
       <c r="J2">
-        <v>1.048420956217138</v>
+        <v>1.016735180564709</v>
       </c>
       <c r="K2">
-        <v>1.044112444682736</v>
+        <v>1.023130967282763</v>
       </c>
       <c r="L2">
-        <v>1.059418610081964</v>
+        <v>1.020817320687311</v>
       </c>
       <c r="M2">
-        <v>1.066314805497059</v>
+        <v>1.022503654921843</v>
       </c>
       <c r="N2">
-        <v>1.019874624930268</v>
+        <v>1.008562572585975</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044784002071997</v>
+        <v>1.001554539890229</v>
       </c>
       <c r="D3">
-        <v>1.042354381503289</v>
+        <v>1.016920830396862</v>
       </c>
       <c r="E3">
-        <v>1.058143109363738</v>
+        <v>1.016477801447114</v>
       </c>
       <c r="F3">
-        <v>1.065204312126877</v>
+        <v>1.018807082547178</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034023081233812</v>
+        <v>1.041056016875793</v>
       </c>
       <c r="J3">
-        <v>1.049499332053239</v>
+        <v>1.022002916103292</v>
       </c>
       <c r="K3">
-        <v>1.044944246879556</v>
+        <v>1.027341688766324</v>
       </c>
       <c r="L3">
-        <v>1.060692191973851</v>
+        <v>1.026904099117739</v>
       </c>
       <c r="M3">
-        <v>1.067735577024751</v>
+        <v>1.029204848225756</v>
       </c>
       <c r="N3">
-        <v>1.020244682089662</v>
+        <v>1.010412016100278</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045710604599175</v>
+        <v>1.006056578434761</v>
       </c>
       <c r="D4">
-        <v>1.043014199200374</v>
+        <v>1.02011723871766</v>
       </c>
       <c r="E4">
-        <v>1.059087945585905</v>
+        <v>1.020872846986985</v>
       </c>
       <c r="F4">
-        <v>1.066243953244835</v>
+        <v>1.023593209819956</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034184216774504</v>
+        <v>1.042101631179329</v>
       </c>
       <c r="J4">
-        <v>1.05019543228345</v>
+        <v>1.025306615010591</v>
       </c>
       <c r="K4">
-        <v>1.045480554169492</v>
+        <v>1.029978781104625</v>
       </c>
       <c r="L4">
-        <v>1.061514891988344</v>
+        <v>1.030725716624508</v>
       </c>
       <c r="M4">
-        <v>1.06865376559317</v>
+        <v>1.033414986369884</v>
       </c>
       <c r="N4">
-        <v>1.020483265786914</v>
+        <v>1.011570673849525</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046099850889578</v>
+        <v>1.007918254312749</v>
       </c>
       <c r="D5">
-        <v>1.043291273414001</v>
+        <v>1.021439398061379</v>
       </c>
       <c r="E5">
-        <v>1.059484950423417</v>
+        <v>1.022691697040216</v>
       </c>
       <c r="F5">
-        <v>1.066680867532015</v>
+        <v>1.025574263955363</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034251501469906</v>
+        <v>1.042530835937353</v>
       </c>
       <c r="J5">
-        <v>1.050487675169966</v>
+        <v>1.026671681673221</v>
       </c>
       <c r="K5">
-        <v>1.045705560548673</v>
+        <v>1.03106748440874</v>
       </c>
       <c r="L5">
-        <v>1.06186042731162</v>
+        <v>1.032305821490908</v>
       </c>
       <c r="M5">
-        <v>1.069039504130961</v>
+        <v>1.035156409933054</v>
       </c>
       <c r="N5">
-        <v>1.020583360073455</v>
+        <v>1.01204910721714</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046165189805298</v>
+        <v>1.008229071088591</v>
       </c>
       <c r="D6">
-        <v>1.043337777135529</v>
+        <v>1.02166015882123</v>
       </c>
       <c r="E6">
-        <v>1.059551597482288</v>
+        <v>1.022995445801896</v>
       </c>
       <c r="F6">
-        <v>1.066754218722753</v>
+        <v>1.025905122790702</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03426277212194</v>
+        <v>1.042602305291647</v>
       </c>
       <c r="J6">
-        <v>1.050536720856968</v>
+        <v>1.026899522052684</v>
       </c>
       <c r="K6">
-        <v>1.045743313399983</v>
+        <v>1.031249141973918</v>
       </c>
       <c r="L6">
-        <v>1.06191842515587</v>
+        <v>1.032569614988663</v>
       </c>
       <c r="M6">
-        <v>1.069104255800098</v>
+        <v>1.035447175507864</v>
       </c>
       <c r="N6">
-        <v>1.020600154290713</v>
+        <v>1.012128942330754</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045715806887614</v>
+        <v>1.006081573686598</v>
       </c>
       <c r="D7">
-        <v>1.043017902705559</v>
+        <v>1.020134988941467</v>
       </c>
       <c r="E7">
-        <v>1.059093251179055</v>
+        <v>1.020897261702842</v>
       </c>
       <c r="F7">
-        <v>1.066249791898866</v>
+        <v>1.023619800370553</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034185117628837</v>
+        <v>1.04210740642923</v>
       </c>
       <c r="J7">
-        <v>1.050199338803776</v>
+        <v>1.0253249470088</v>
       </c>
       <c r="K7">
-        <v>1.045483562507954</v>
+        <v>1.02999340543188</v>
       </c>
       <c r="L7">
-        <v>1.061519510329161</v>
+        <v>1.030746932320686</v>
       </c>
       <c r="M7">
-        <v>1.068658920895371</v>
+        <v>1.033438365343949</v>
       </c>
       <c r="N7">
-        <v>1.020484604060425</v>
+        <v>1.011577100191622</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.043834917983032</v>
+        <v>0.9968376344650037</v>
       </c>
       <c r="D8">
-        <v>1.041678212547009</v>
+        <v>1.01357357197095</v>
       </c>
       <c r="E8">
-        <v>1.05717568789799</v>
+        <v>1.011878082696755</v>
       </c>
       <c r="F8">
-        <v>1.064140071150009</v>
+        <v>1.013799232033108</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033856655423532</v>
+        <v>1.03994961491038</v>
       </c>
       <c r="J8">
-        <v>1.04878574934566</v>
+        <v>1.018537969615961</v>
       </c>
       <c r="K8">
-        <v>1.044393956686222</v>
+        <v>1.024572766796549</v>
       </c>
       <c r="L8">
-        <v>1.059849314799953</v>
+        <v>1.022899526161024</v>
       </c>
       <c r="M8">
-        <v>1.066795202910922</v>
+        <v>1.024795472721447</v>
       </c>
       <c r="N8">
-        <v>1.019999868122309</v>
+        <v>1.009195759800891</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040510529101135</v>
+        <v>0.9794090964536503</v>
       </c>
       <c r="D9">
-        <v>1.039307209723246</v>
+        <v>1.001226448284404</v>
       </c>
       <c r="E9">
-        <v>1.053789680512645</v>
+        <v>0.9949256428167834</v>
       </c>
       <c r="F9">
-        <v>1.060417104731024</v>
+        <v>0.9953500152200063</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033263157161328</v>
+        <v>1.035779392533768</v>
       </c>
       <c r="J9">
-        <v>1.04628173360309</v>
+        <v>1.005710529369013</v>
       </c>
       <c r="K9">
-        <v>1.042459036567018</v>
+        <v>1.01429965851137</v>
       </c>
       <c r="L9">
-        <v>1.056895297610551</v>
+        <v>1.008101587946893</v>
       </c>
       <c r="M9">
-        <v>1.06350203539478</v>
+        <v>1.008518988406903</v>
       </c>
       <c r="N9">
-        <v>1.019138985379948</v>
+        <v>1.004685970361765</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03828711480803</v>
+        <v>0.9668813693299634</v>
       </c>
       <c r="D10">
-        <v>1.037719386250764</v>
+        <v>0.9923776469581603</v>
       </c>
       <c r="E10">
-        <v>1.051527231204207</v>
+        <v>0.9827800784839413</v>
       </c>
       <c r="F10">
-        <v>1.057931071669741</v>
+        <v>0.9821360998416736</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032857524415149</v>
+        <v>1.032717289022691</v>
       </c>
       <c r="J10">
-        <v>1.04460328471994</v>
+        <v>0.9964735236739591</v>
       </c>
       <c r="K10">
-        <v>1.041158852887813</v>
+        <v>1.006885902786785</v>
       </c>
       <c r="L10">
-        <v>1.05491825492642</v>
+        <v>0.9974673636078534</v>
       </c>
       <c r="M10">
-        <v>1.061300100574099</v>
+        <v>0.9968355612284394</v>
       </c>
       <c r="N10">
-        <v>1.018560451859899</v>
+        <v>1.001433842706058</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037322561509664</v>
+        <v>0.9612036951345226</v>
       </c>
       <c r="D11">
-        <v>1.037030091798374</v>
+        <v>0.9883761507979217</v>
       </c>
       <c r="E11">
-        <v>1.050546265103486</v>
+        <v>0.9772861940824619</v>
       </c>
       <c r="F11">
-        <v>1.056853530254003</v>
+        <v>0.9761592722185046</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032679498679429</v>
+        <v>1.031315424159888</v>
       </c>
       <c r="J11">
-        <v>1.043874269998979</v>
+        <v>0.9922845075577104</v>
       </c>
       <c r="K11">
-        <v>1.040593380827931</v>
+        <v>1.003520656329344</v>
       </c>
       <c r="L11">
-        <v>1.054060267845481</v>
+        <v>0.9926495595510846</v>
       </c>
       <c r="M11">
-        <v>1.0603450096844</v>
+        <v>0.9915452437829396</v>
       </c>
       <c r="N11">
-        <v>1.018308824897793</v>
+        <v>0.999958262745589</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036964004886</v>
+        <v>0.9590530175076051</v>
       </c>
       <c r="D12">
-        <v>1.036773788661865</v>
+        <v>0.9868619803978225</v>
       </c>
       <c r="E12">
-        <v>1.050181686022158</v>
+        <v>0.9752068326395649</v>
       </c>
       <c r="F12">
-        <v>1.056453113565733</v>
+        <v>0.9738971073475243</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032613012183325</v>
+        <v>1.030782403417265</v>
       </c>
       <c r="J12">
-        <v>1.043603139681706</v>
+        <v>0.9906974340160497</v>
       </c>
       <c r="K12">
-        <v>1.040382961732405</v>
+        <v>1.002245288146718</v>
       </c>
       <c r="L12">
-        <v>1.053741278630382</v>
+        <v>0.9908249609127778</v>
       </c>
       <c r="M12">
-        <v>1.059989992431925</v>
+        <v>0.9895420866375102</v>
       </c>
       <c r="N12">
-        <v>1.018215189538723</v>
+        <v>0.9993991419642747</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037040929236287</v>
+        <v>0.9595162989793917</v>
       </c>
       <c r="D13">
-        <v>1.036828778778623</v>
+        <v>0.98718807517778</v>
       </c>
       <c r="E13">
-        <v>1.050259898855049</v>
+        <v>0.9756546733262326</v>
       </c>
       <c r="F13">
-        <v>1.056539012129577</v>
+        <v>0.9743843209709337</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032627290070986</v>
+        <v>1.03089731069485</v>
       </c>
       <c r="J13">
-        <v>1.04366131361814</v>
+        <v>0.9910393196957205</v>
       </c>
       <c r="K13">
-        <v>1.040428114500842</v>
+        <v>1.002520043106002</v>
       </c>
       <c r="L13">
-        <v>1.053809716344127</v>
+        <v>0.9912179828496714</v>
       </c>
       <c r="M13">
-        <v>1.060066156456137</v>
+        <v>0.9899735532922944</v>
       </c>
       <c r="N13">
-        <v>1.018235282360435</v>
+        <v>0.9995195899329197</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037292928837446</v>
+        <v>0.9610267941353162</v>
       </c>
       <c r="D14">
-        <v>1.037008911204977</v>
+        <v>0.9882515712995553</v>
       </c>
       <c r="E14">
-        <v>1.050516133101222</v>
+        <v>0.9771151240318637</v>
       </c>
       <c r="F14">
-        <v>1.056820435200464</v>
+        <v>0.975973163553285</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032674010234446</v>
+        <v>1.031271621125885</v>
       </c>
       <c r="J14">
-        <v>1.043851865289468</v>
+        <v>0.9921539702528249</v>
       </c>
       <c r="K14">
-        <v>1.040575995248319</v>
+        <v>1.003415764418903</v>
       </c>
       <c r="L14">
-        <v>1.054033906147947</v>
+        <v>0.9924994716954958</v>
       </c>
       <c r="M14">
-        <v>1.060315669073764</v>
+        <v>0.9913804603178094</v>
       </c>
       <c r="N14">
-        <v>1.018301088446884</v>
+        <v>0.9999122761819514</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037448156950141</v>
+        <v>0.9619518099254045</v>
       </c>
       <c r="D15">
-        <v>1.037119861022499</v>
+        <v>0.9889030634922334</v>
       </c>
       <c r="E15">
-        <v>1.050673980135438</v>
+        <v>0.9780097194012888</v>
       </c>
       <c r="F15">
-        <v>1.056993806478206</v>
+        <v>0.9769464009603954</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0327027483416</v>
+        <v>1.031500586748358</v>
       </c>
       <c r="J15">
-        <v>1.043969224993374</v>
+        <v>0.9928365389864793</v>
       </c>
       <c r="K15">
-        <v>1.040667059289975</v>
+        <v>1.003964220001869</v>
       </c>
       <c r="L15">
-        <v>1.054171997636971</v>
+        <v>0.9932842969356988</v>
       </c>
       <c r="M15">
-        <v>1.060469368144792</v>
+        <v>0.9922421461657294</v>
       </c>
       <c r="N15">
-        <v>1.01834161117742</v>
+        <v>1.000152733295212</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038351090413365</v>
+        <v>0.9672525398577804</v>
       </c>
       <c r="D16">
-        <v>1.03776509505573</v>
+        <v>0.9926394429156729</v>
       </c>
       <c r="E16">
-        <v>1.05159230642538</v>
+        <v>0.9831394616674791</v>
       </c>
       <c r="F16">
-        <v>1.058002561205755</v>
+        <v>0.9825270761711947</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032869289028292</v>
+        <v>1.032808652188234</v>
       </c>
       <c r="J16">
-        <v>1.04465161942315</v>
+        <v>0.9967473282508175</v>
       </c>
       <c r="K16">
-        <v>1.041196328696625</v>
+        <v>1.007105805767013</v>
       </c>
       <c r="L16">
-        <v>1.054975155771979</v>
+        <v>0.9977823654009382</v>
       </c>
       <c r="M16">
-        <v>1.061363451624079</v>
+        <v>0.9971815130693402</v>
       </c>
       <c r="N16">
-        <v>1.01857712779185</v>
+        <v>1.001530278109915</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038916989032728</v>
+        <v>0.9705073193109962</v>
       </c>
       <c r="D17">
-        <v>1.038169359838133</v>
+        <v>0.9949361468092986</v>
       </c>
       <c r="E17">
-        <v>1.052167991944533</v>
+        <v>0.9862920838763742</v>
       </c>
       <c r="F17">
-        <v>1.058635033103585</v>
+        <v>0.9859568717746265</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032973116168956</v>
+        <v>1.033608236138046</v>
       </c>
       <c r="J17">
-        <v>1.045079064775489</v>
+        <v>0.9991480150028212</v>
       </c>
       <c r="K17">
-        <v>1.041527657287251</v>
+        <v>1.009033550123677</v>
       </c>
       <c r="L17">
-        <v>1.055478438165001</v>
+        <v>1.000544808680705</v>
       </c>
       <c r="M17">
-        <v>1.061923842390553</v>
+        <v>1.000215691239398</v>
       </c>
       <c r="N17">
-        <v>1.018724560439628</v>
+        <v>1.002375734376799</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039246894978223</v>
+        <v>0.9723816335441587</v>
       </c>
       <c r="D18">
-        <v>1.038404991491892</v>
+        <v>0.9962595527709848</v>
       </c>
       <c r="E18">
-        <v>1.052503653635058</v>
+        <v>0.9881085559450915</v>
       </c>
       <c r="F18">
-        <v>1.059003840350868</v>
+        <v>0.9879330787719981</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033033446865614</v>
+        <v>1.03406735772095</v>
       </c>
       <c r="J18">
-        <v>1.045328171151652</v>
+        <v>1.000530222990734</v>
       </c>
       <c r="K18">
-        <v>1.041720676284113</v>
+        <v>1.010143165079719</v>
       </c>
       <c r="L18">
-        <v>1.055771810017669</v>
+        <v>1.002135757513866</v>
       </c>
       <c r="M18">
-        <v>1.062250551274075</v>
+        <v>1.001963405393601</v>
       </c>
       <c r="N18">
-        <v>1.018810447655902</v>
+        <v>1.002862439535711</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039359355256112</v>
+        <v>0.9730167359499009</v>
       </c>
       <c r="D19">
-        <v>1.038485307243449</v>
+        <v>0.9967081137442756</v>
       </c>
       <c r="E19">
-        <v>1.05261808446827</v>
+        <v>0.9887242232258899</v>
       </c>
       <c r="F19">
-        <v>1.059129576897032</v>
+        <v>0.9886028933698746</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033053979124975</v>
+        <v>1.034222699825003</v>
       </c>
       <c r="J19">
-        <v>1.045413073655084</v>
+        <v>1.000998529535908</v>
       </c>
       <c r="K19">
-        <v>1.04178645030621</v>
+        <v>1.010519062412728</v>
       </c>
       <c r="L19">
-        <v>1.055871811195473</v>
+        <v>1.00267486607526</v>
       </c>
       <c r="M19">
-        <v>1.062361924068516</v>
+        <v>1.002555681702566</v>
       </c>
       <c r="N19">
-        <v>1.018839714757945</v>
+        <v>1.003027327363686</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03885629143453</v>
+        <v>0.9701606348197581</v>
       </c>
       <c r="D20">
-        <v>1.038126003582755</v>
+        <v>0.9946914259354079</v>
       </c>
       <c r="E20">
-        <v>1.052106239418163</v>
+        <v>0.9859561774475516</v>
       </c>
       <c r="F20">
-        <v>1.058567185561945</v>
+        <v>0.9855914299208873</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0329620002927</v>
+        <v>1.033523205606283</v>
       </c>
       <c r="J20">
-        <v>1.045033226243734</v>
+        <v>0.9988923312874004</v>
       </c>
       <c r="K20">
-        <v>1.041492133655728</v>
+        <v>1.008828266939662</v>
       </c>
       <c r="L20">
-        <v>1.055424459835894</v>
+        <v>1.000250548923775</v>
       </c>
       <c r="M20">
-        <v>1.06186373411946</v>
+        <v>0.9998924582724582</v>
       </c>
       <c r="N20">
-        <v>1.01870875347109</v>
+        <v>1.002285696674468</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037218728991528</v>
+        <v>0.9605831754480807</v>
       </c>
       <c r="D21">
-        <v>1.036955874143814</v>
+        <v>0.9879391867030419</v>
       </c>
       <c r="E21">
-        <v>1.050440684212014</v>
+        <v>0.9766861554192258</v>
       </c>
       <c r="F21">
-        <v>1.056737567878409</v>
+        <v>0.9755064842123966</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032660262256496</v>
+        <v>1.031161743508961</v>
       </c>
       <c r="J21">
-        <v>1.043795762054862</v>
+        <v>0.9918266145731358</v>
       </c>
       <c r="K21">
-        <v>1.040532458513083</v>
+        <v>1.003152715065958</v>
       </c>
       <c r="L21">
-        <v>1.053967896027467</v>
+        <v>0.9921230991758332</v>
       </c>
       <c r="M21">
-        <v>1.060242200900503</v>
+        <v>0.9909672420726466</v>
       </c>
       <c r="N21">
-        <v>1.01828171490018</v>
+        <v>0.9997969520379719</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036187512637309</v>
+        <v>0.9543177446579058</v>
       </c>
       <c r="D22">
-        <v>1.036218611634954</v>
+        <v>0.9835313544498048</v>
       </c>
       <c r="E22">
-        <v>1.049392295981357</v>
+        <v>0.9706318424345689</v>
       </c>
       <c r="F22">
-        <v>1.055586227706925</v>
+        <v>0.9689198090678162</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032468465001626</v>
+        <v>1.029605267665717</v>
       </c>
       <c r="J22">
-        <v>1.043015738721999</v>
+        <v>0.9872026814721266</v>
       </c>
       <c r="K22">
-        <v>1.039926885802792</v>
+        <v>0.999436273535723</v>
       </c>
       <c r="L22">
-        <v>1.053050388529027</v>
+        <v>0.9868084353472237</v>
       </c>
       <c r="M22">
-        <v>1.059221205310886</v>
+        <v>0.985133180093237</v>
       </c>
       <c r="N22">
-        <v>1.018012234842096</v>
+        <v>0.9981678560425855</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036734335826211</v>
+        <v>0.9576636453637658</v>
       </c>
       <c r="D23">
-        <v>1.036609597449143</v>
+        <v>0.9858842804429391</v>
       </c>
       <c r="E23">
-        <v>1.049948181566871</v>
+        <v>0.9738640248168273</v>
       </c>
       <c r="F23">
-        <v>1.056196671373599</v>
+        <v>0.9724362359113813</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032570338307432</v>
+        <v>1.030437515073814</v>
       </c>
       <c r="J23">
-        <v>1.043429433578952</v>
+        <v>0.9896720922587589</v>
       </c>
       <c r="K23">
-        <v>1.04024812012471</v>
+        <v>1.001421224893341</v>
       </c>
       <c r="L23">
-        <v>1.053536940854725</v>
+        <v>0.989646357948203</v>
       </c>
       <c r="M23">
-        <v>1.059762596657765</v>
+        <v>0.9882482494997489</v>
       </c>
       <c r="N23">
-        <v>1.018155185231155</v>
+        <v>0.9990379010693219</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038883718601725</v>
+        <v>0.970317360954371</v>
       </c>
       <c r="D24">
-        <v>1.038145594931281</v>
+        <v>0.9948020547261582</v>
       </c>
       <c r="E24">
-        <v>1.05213414311614</v>
+        <v>0.9861080280710508</v>
       </c>
       <c r="F24">
-        <v>1.058597843263826</v>
+        <v>0.985756632286518</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032967023789239</v>
+        <v>1.033561649619581</v>
       </c>
       <c r="J24">
-        <v>1.045053939368534</v>
+        <v>0.9990079194048819</v>
       </c>
       <c r="K24">
-        <v>1.041508185995563</v>
+        <v>1.008921071174851</v>
       </c>
       <c r="L24">
-        <v>1.055448850888936</v>
+        <v>1.000383574866369</v>
       </c>
       <c r="M24">
-        <v>1.061890894946988</v>
+        <v>1.000038581294114</v>
       </c>
       <c r="N24">
-        <v>1.018715896292823</v>
+        <v>1.002326400656496</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04137119372864</v>
+        <v>0.9840635011781981</v>
       </c>
       <c r="D25">
-        <v>1.039921414801505</v>
+        <v>1.004520116068449</v>
       </c>
       <c r="E25">
-        <v>1.054665916397533</v>
+        <v>0.9994464394527852</v>
       </c>
       <c r="F25">
-        <v>1.061380262739911</v>
+        <v>1.000269092468179</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033418341581835</v>
+        <v>1.036904416838502</v>
       </c>
       <c r="J25">
-        <v>1.046930664119579</v>
+        <v>1.009139357826941</v>
       </c>
       <c r="K25">
-        <v>1.042961047733418</v>
+        <v>1.017048665973608</v>
       </c>
       <c r="L25">
-        <v>1.05766031238979</v>
+        <v>1.012053354817898</v>
       </c>
       <c r="M25">
-        <v>1.064354512556675</v>
+        <v>1.012863232558279</v>
       </c>
       <c r="N25">
-        <v>1.019362349944304</v>
+        <v>1.005892357298252</v>
       </c>
     </row>
   </sheetData>
